--- a/data/trans_orig/P62AS1_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1_2015-Provincia-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>32,12%</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,84%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>72,09%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>11,95%</t>
         </is>
       </c>
     </row>
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>28,23%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>72,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,21%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>52,31%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>66,31%</t>
+          <t>65,91%</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>19,08%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>82,64%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>69,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>83,24%</t>
+          <t>83,3%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,85%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>25,31%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>74,55%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>75,19%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>34,37%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>15,01%</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>16,18%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>48,0%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>66,13%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>57,15%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>74,67%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,42%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,97%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>72,01%</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3225,12 +3225,12 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,03%</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>74,24%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>69,32%</t>
         </is>
       </c>
     </row>
@@ -3563,12 +3563,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3605,12 +3605,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>67,6%</t>
         </is>
       </c>
     </row>
